--- a/data/trans_orig/IP1022_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E5B38FC-5E6D-4379-B4E1-D5EDD88FDDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9897AB0-C3E6-4AAC-B596-0D8CCC1C8260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6647F46A-9B01-415D-B665-DED9C6AADFBC}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{12E5D1A9-E6D7-4C5A-BA23-FB3FBD31769A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>9,97%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
   </si>
   <si>
     <t>92,8%</t>
@@ -682,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB902155-00CB-4049-8E75-13607ADE0DEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C028A123-29F5-4849-9781-2B2687B2D0D4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>438</v>
+        <v>256</v>
       </c>
       <c r="D7" s="7">
-        <v>367070</v>
+        <v>191909</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +970,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="I7" s="7">
-        <v>322741</v>
+        <v>188203</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -985,10 +985,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>864</v>
+        <v>522</v>
       </c>
       <c r="N7" s="7">
-        <v>689811</v>
+        <v>380112</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>31481</v>
+        <v>13146</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1021,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>28067</v>
+        <v>10064</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1036,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>59548</v>
+        <v>23211</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>398551</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1087,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>940</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>749359</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>256</v>
+        <v>438</v>
       </c>
       <c r="D10" s="7">
-        <v>191909</v>
+        <v>367070</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1125,10 +1125,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="I10" s="7">
-        <v>188203</v>
+        <v>322741</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1140,10 +1140,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>522</v>
+        <v>864</v>
       </c>
       <c r="N10" s="7">
-        <v>380112</v>
+        <v>689811</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1161,10 +1161,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>13146</v>
+        <v>31481</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1176,10 +1176,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>10064</v>
+        <v>28067</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1191,10 +1191,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="N11" s="7">
-        <v>23211</v>
+        <v>59548</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1212,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>398551</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1227,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1242,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>940</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>749359</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
         <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>84</v>

--- a/data/trans_orig/IP1022_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9897AB0-C3E6-4AAC-B596-0D8CCC1C8260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD2EB57-FA96-4C49-B9C2-43D340EE36C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{12E5D1A9-E6D7-4C5A-BA23-FB3FBD31769A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{358EAE01-9160-4CB5-BAC4-E6DDA7491B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
-  <si>
-    <t>Menores según si padecen otros en 2023 (Tasa respuesta: 99,84%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+  <si>
+    <t>Menores según si padecen otros problemas crónicos de salud en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,232 +65,298 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>96,41%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +367,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -397,39 +463,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -481,7 +547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -592,13 +658,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -607,6 +666,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -671,19 +737,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C028A123-29F5-4849-9781-2B2687B2D0D4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95290D94-2570-4BF8-A5C9-C87C01E50DEE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -800,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>110579</v>
+        <v>2655</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -815,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>99990</v>
+        <v>1565</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -830,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>406</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>210569</v>
+        <v>4221</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -851,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="D5" s="7">
-        <v>7359</v>
+        <v>55848</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -866,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>3198</v>
+        <v>55188</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -881,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="N5" s="7">
-        <v>10557</v>
+        <v>111035</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -902,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -917,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>103188</v>
+        <v>56753</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -932,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>221126</v>
+        <v>115256</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -955,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>191909</v>
+        <v>9754</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>188203</v>
+        <v>7779</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -985,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>522</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>380112</v>
+        <v>17533</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="D8" s="7">
-        <v>13146</v>
+        <v>165545</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="I8" s="7">
-        <v>10064</v>
+        <v>150986</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>30</v>
+        <v>505</v>
       </c>
       <c r="N8" s="7">
-        <v>23211</v>
+        <v>316530</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>367070</v>
+        <v>15824</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1125,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>426</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>322741</v>
+        <v>8488</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1140,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>864</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>689811</v>
+        <v>24313</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1161,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="D11" s="7">
-        <v>31481</v>
+        <v>186654</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1176,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="I11" s="7">
-        <v>28067</v>
+        <v>167625</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1191,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>76</v>
+        <v>447</v>
       </c>
       <c r="N11" s="7">
-        <v>59548</v>
+        <v>354278</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1212,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>398551</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>940</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>749359</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1259,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>908</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>669558</v>
+        <v>23753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>884</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>610935</v>
+        <v>23497</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1792</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>1280492</v>
+        <v>47250</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="D14" s="7">
-        <v>51987</v>
+        <v>261512</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>57</v>
+        <v>312</v>
       </c>
       <c r="I14" s="7">
-        <v>41329</v>
+        <v>237136</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>125</v>
+        <v>623</v>
       </c>
       <c r="N14" s="7">
-        <v>93316</v>
+        <v>498648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,55 +1453,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>285265</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>683</v>
+      </c>
+      <c r="N15" s="7">
+        <v>545898</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7">
+        <v>51987</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>57</v>
+      </c>
+      <c r="I16" s="7">
+        <v>41329</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>125</v>
+      </c>
+      <c r="N16" s="7">
+        <v>93316</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>908</v>
+      </c>
+      <c r="D17" s="7">
+        <v>669558</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>884</v>
+      </c>
+      <c r="I17" s="7">
+        <v>610935</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1792</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1280492</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>976</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>721545</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>941</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652264</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1917</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1373808</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1022_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD2EB57-FA96-4C49-B9C2-43D340EE36C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{276F9B48-A13D-4755-9E26-87F1480E1238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{358EAE01-9160-4CB5-BAC4-E6DDA7491B8C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{321962E6-13F3-4764-897E-72EE33665657}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>Menores según si padecen otros problemas crónicos de salud en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>95,46%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>2,6%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>97,4%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,166 +188,154 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>2,59%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>91,83%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95290D94-2570-4BF8-A5C9-C87C01E50DEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965345BC-44EB-4F75-8D92-A21F2BB3481A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1068,7 +1050,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -1077,13 +1059,13 @@
         <v>17533</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,13 +1080,13 @@
         <v>165545</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>245</v>
@@ -1113,13 +1095,13 @@
         <v>150986</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>505</v>
@@ -1128,13 +1110,13 @@
         <v>316530</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,7 +1172,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1202,13 +1184,13 @@
         <v>15824</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -1217,13 +1199,13 @@
         <v>8488</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -1232,13 +1214,13 @@
         <v>24313</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,13 +1235,13 @@
         <v>186654</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -1268,13 +1250,13 @@
         <v>167625</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>447</v>
@@ -1283,13 +1265,13 @@
         <v>354278</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,7 +1327,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1357,13 +1339,13 @@
         <v>23753</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -1372,13 +1354,13 @@
         <v>23497</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -1387,13 +1369,13 @@
         <v>47250</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,13 +1390,13 @@
         <v>261512</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>312</v>
@@ -1423,13 +1405,13 @@
         <v>237136</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>623</v>
@@ -1438,13 +1420,13 @@
         <v>498648</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,13 +1494,13 @@
         <v>51987</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -1527,13 +1509,13 @@
         <v>41329</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -1542,13 +1524,13 @@
         <v>93316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1545,13 @@
         <v>669558</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>884</v>
@@ -1578,13 +1560,13 @@
         <v>610935</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1792</v>
@@ -1593,13 +1575,13 @@
         <v>1280492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,7 +1637,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1022_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{276F9B48-A13D-4755-9E26-87F1480E1238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB150C0-9758-4A21-A7D9-12857C257428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{321962E6-13F3-4764-897E-72EE33665657}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4EB8198E-3BD5-4B03-9382-E9CBE0A88422}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si padecen otros problemas crónicos de salud en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,208 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>94,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -750,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965345BC-44EB-4F75-8D92-A21F2BB3481A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E937C14-3E3E-4B95-BD20-7B8FEF15F012}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -868,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2655</v>
+        <v>1562</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -883,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1565</v>
+        <v>3116</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -901,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>4221</v>
+        <v>4679</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -919,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>55848</v>
+        <v>55341</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -934,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I5" s="7">
-        <v>55188</v>
+        <v>58328</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -952,7 +970,7 @@
         <v>217</v>
       </c>
       <c r="N5" s="7">
-        <v>111035</v>
+        <v>113668</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -970,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56903</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>108</v>
-      </c>
       <c r="I6" s="7">
-        <v>56753</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1003,7 +1021,7 @@
         <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>115256</v>
+        <v>118347</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1023,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>9754</v>
+        <v>7726</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1038,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>7779</v>
+        <v>10389</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1050,22 +1068,22 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>17533</v>
+        <v>18116</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1074,49 +1092,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>245</v>
+      </c>
+      <c r="D8" s="7">
+        <v>151573</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>260</v>
       </c>
-      <c r="D8" s="7">
-        <v>165545</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7">
-        <v>245</v>
-      </c>
       <c r="I8" s="7">
-        <v>150986</v>
+        <v>172165</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>505</v>
       </c>
       <c r="N8" s="7">
-        <v>316530</v>
+        <v>323737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1125,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1176,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1172,55 +1190,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8220</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
-        <v>15824</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
       <c r="I10" s="7">
-        <v>8488</v>
+        <v>16561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>24313</v>
+        <v>24781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1229,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>222</v>
+      </c>
+      <c r="D11" s="7">
+        <v>164852</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>225</v>
       </c>
-      <c r="D11" s="7">
-        <v>186654</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7">
-        <v>222</v>
-      </c>
       <c r="I11" s="7">
-        <v>167625</v>
+        <v>195929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>447</v>
       </c>
       <c r="N11" s="7">
-        <v>354278</v>
+        <v>360782</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1280,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1327,7 +1345,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1336,46 +1354,46 @@
         <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>23753</v>
+        <v>26296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>23497</v>
+        <v>27561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>47250</v>
+        <v>53857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>312</v>
+      </c>
+      <c r="D14" s="7">
+        <v>249162</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>311</v>
       </c>
-      <c r="D14" s="7">
-        <v>261512</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>312</v>
-      </c>
       <c r="I14" s="7">
-        <v>237136</v>
+        <v>273686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>623</v>
       </c>
       <c r="N14" s="7">
-        <v>498648</v>
+        <v>522848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,25 +1453,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>275458</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>341</v>
       </c>
-      <c r="D15" s="7">
-        <v>285265</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>342</v>
-      </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>301247</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1486,7 @@
         <v>683</v>
       </c>
       <c r="N15" s="7">
-        <v>545898</v>
+        <v>576705</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1488,49 +1506,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43804</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>68</v>
       </c>
-      <c r="D16" s="7">
-        <v>51987</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
       <c r="I16" s="7">
-        <v>41329</v>
+        <v>57628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
       </c>
       <c r="N16" s="7">
-        <v>93316</v>
+        <v>101432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>884</v>
+      </c>
+      <c r="D17" s="7">
+        <v>620928</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>908</v>
       </c>
-      <c r="D17" s="7">
-        <v>669558</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="7">
-        <v>884</v>
-      </c>
       <c r="I17" s="7">
-        <v>610935</v>
+        <v>700108</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1792</v>
       </c>
       <c r="N17" s="7">
-        <v>1280492</v>
+        <v>1321036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>941</v>
+      </c>
+      <c r="D18" s="7">
+        <v>664732</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>721545</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
       <c r="I18" s="7">
-        <v>652264</v>
+        <v>757736</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1623,7 +1641,7 @@
         <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>1373808</v>
+        <v>1422468</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1637,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
